--- a/test_data/test_data_9.xlsx
+++ b/test_data/test_data_9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1618,7 +1618,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1810,7 +1810,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1818,7 +1818,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2233,7 +2233,7 @@
         <v>81</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -2241,7 +2241,7 @@
         <v>82</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -2329,7 +2329,7 @@
         <v>93</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -2401,7 +2401,7 @@
         <v>102</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -2633,7 +2633,7 @@
         <v>131</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2703,7 +2703,7 @@
         <v>136</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -2711,7 +2711,7 @@
         <v>137</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2719,7 +2719,7 @@
         <v>138</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2815,7 +2815,7 @@
         <v>150</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -2831,7 +2831,7 @@
         <v>152</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -2839,7 +2839,7 @@
         <v>153</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -2855,7 +2855,7 @@
         <v>155</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -2959,7 +2959,7 @@
         <v>168</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -2967,7 +2967,7 @@
         <v>169</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -2975,7 +2975,7 @@
         <v>170</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -3039,7 +3039,7 @@
         <v>178</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -3047,7 +3047,7 @@
         <v>179</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -3759,7 +3759,7 @@
         <v>265</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -3818,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3883,7 +3883,7 @@
         <v>277</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -4003,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4102,7 +4102,7 @@
         <v>300</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -4134,7 +4134,7 @@
         <v>303</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -4158,7 +4158,7 @@
         <v>306</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -4166,7 +4166,7 @@
         <v>307</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -4190,7 +4190,7 @@
         <v>310</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -4198,7 +4198,7 @@
         <v>311</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -4214,7 +4214,7 @@
         <v>313</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -4439,11 +4439,6 @@
       </c>
       <c r="B53">
         <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
